--- a/src/testdata/NoDataIsbns.xlsx
+++ b/src/testdata/NoDataIsbns.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,16 +32,16 @@
     <t>rental_term</t>
   </si>
   <si>
-    <t>https://www.vitalsource.com/products/managing-in-a-global-economy-demystifying-john-e-marthinsen-v9781305176157</t>
-  </si>
-  <si>
-    <t>http://www.vitalsource.com/products/essentials-of-pharmacology-for-health-professions-bruce-colbert-v9781337670852?term=9781337670852</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
+    <t>http://www.vitalsource.com/products/writing-analytically-david-rosenwasser-v9781337672429?term=9781337559461</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/popular-music-in-america-the-beat-goes-on-michael-campbell-v9781337671965?term=9781337560375</t>
+  </si>
+  <si>
+    <t>1 Year</t>
+  </si>
+  <si>
+    <t>180 Day</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/testdata/NoDataIsbns.xlsx
+++ b/src/testdata/NoDataIsbns.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
   <si>
     <t>url</t>
   </si>
@@ -35,13 +35,292 @@
     <t>http://www.vitalsource.com/products/writing-analytically-david-rosenwasser-v9781337672429?term=9781337559461</t>
   </si>
   <si>
-    <t>http://www.vitalsource.com/products/popular-music-in-america-the-beat-goes-on-michael-campbell-v9781337671965?term=9781337560375</t>
-  </si>
-  <si>
     <t>1 Year</t>
   </si>
   <si>
     <t>180 Day</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-powerpoint-2010-introductory-pasewark-pasewark-v9781133420477</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/2012-coding-workbook-for-the-physician-39-s-office-alice-covell-v9781285401096</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/adobe-photoshop-cs5-introductory-gary-b-shelly-v9781133170877</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/job-search-career-planning-guide-book-2-robert-d-lock-v1111793840</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/principles-of-geotechnical-engineering-si-braja-m-das-v1111781370</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-outlook-2010-coursenotes-course-technology-v9781133169420</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/adobe-dreamweaver-cs5-introductory-gary-b-shelly-v9781133419907</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-powerpoint-2010-coursenotes-course-technology-v9781133169413</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/natef-standards-job-sheets-area-a4-jack-erjavec-v1111786739</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/statistics-learning-from-data-roxy-peck-v9781337672153?term=9781337558082</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/an-introduction-to-language-victoria-fromkin-v9781337671279?term=9781337671279</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/elementary-technical-mathematics-dale-ewen-v9781337670678?term=9781337670678</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-office-powerpoint-2007-comprehensive-gary-b-shelly-v1111797226</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/harbrace-essentials-cheryl-glenn-v9781337671125?term=9781337556880</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/chemistry-in-focus-a-molecular-view-of-our-world-nivaldo-j-tro-v9781337670425?term=9781337670425</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/sourcebook-of-phonological-awareness-activities-candace-l-goldsworthy-v9781285414928</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/practical-problems-in-mathematics-for-masons-john-ball-v9781285402123</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/computer-literacy-basics-microsoft-office-2007-jennifer-t-campbell-v1111804788</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/essentials-of-business-law-jeffrey-f-beatty-v9781337670807?term=9781337404198</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-office-2007-fundamentals-laura-story-v1111784779</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/ethics-in-information-technology-george-reynolds-v9781337670883?term=9781337405874</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/foundations-of-kinesiology-a-modern-integrated-tinker-d-murray-v9781337670951?term=9781337670951</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/3-2-1-code-it-2012-update-michelle-a-green-v9781285402246</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/college-accounting-chapters-1-9-james-a-heintz-v1111790302</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/finite-element-analysis-with-solidworks-simulation-robert-h-king-v9781337670913?term=9781337670913</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/adobe-dreamweaver-cs4-comprehensive-concepts-and-gary-b-shelly-v1111786208</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/pro-engineer-wildfire-5-0-gary-lamit-v1133008372</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/new-perspectives-on-microsoft-word-2010-brief-s-scott-zimmerman-v1133008461</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/applied-computer-keyboarding-jack-p-hoggatt-v1111802262</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/natef-standards-job-sheets-area-a5-jack-erjavec-v1111786798</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-office-2007-advanced-concepts-and-gary-b-shelly-v1111797102</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/planning-effective-instruction-diversity-kay-m-price-v9781337671941?term=9781337564847</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/the-global-west-connections-amp-identities-frank-l-kidner-v9781337671057?term=9781337671057</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/business-law-and-the-legal-environment-standard-jeffrey-f-beatty-v9781337670364?term=9781337404532</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/natef-standards-job-sheets-area-a2-jack-erjavec-v1111809895</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/natef-standards-job-sheets-area-a3-jack-erjavec-v1111786720</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/death-amp-dying-life-amp-living-charles-a-corr-v9781337670579?term=9781337670579</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/automotive-engines-diagnosis-repair-and-tim-gilles-v9781337670227?term=9781337670227</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/leading-with-character-barbara-farmer-v1111801282</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-powerpoint-2010-illustrated-david-w-beskeen-v9781133169659</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-powerpoint-2010-complete-pasewark-and-pasewark-v9781133387558</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/king-lear-evans-shakespeare-edition-vincent-f-petronella-v9781133715030</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/spanish-translated-haircoloring-and-chemical-milady-v9781285414805</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/cengage-advantage-books-mais-oui-volume-2-chantal-thompson-v9781133709992</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/corporate-financial-accounting-carl-s-warren-v9781337670517?term=9781337398169</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/volume-5-animal-structure-amp-function-cecie-starr-v9781133714071</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/exploring-adobe-indesign-cs4-terry-rydberg-v1111809844</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-publisher-2010-complete-gary-b-shelly-v9781133169512</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/new-perspectives-on-microsoft-excel-2010-brief-patrick-carey-v1133008836</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/essentials-of-pharmacology-for-health-professions-bruce-colbert-v9781337670852?term=9781337670852</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/new-perspectives-on-microsoft-word-2010-s-scott-zimmerman-v9781133417897</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/legal-aspects-of-architecture-engineering-amp-the-justin-sweet-v1111803587</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/working-smart-madelyn-l-schulman-v1111794502</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/hamlet-evans-shakespeare-editions-john-tobin-v9781285400884</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/hold-paramount-the-engineer-s-responsibility-to-p-aarne-vesilind-v1133007139</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/natef-standards-job-sheets-area-a7-jack-erjavec-v1111786755</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/fusion-integrated-reading-and-writing-book-1-dave-kemper-v9781337671026?term=9781337671026</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/computer-literacy-basics-a-comprehensive-guide-to-cep-inc-v111179507x</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/the-power-of-art-revised-richard-l-lewis-v9781337671972?term=9781337671972</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/fitness-and-wellness-wener-w-k-hoeger-v9781337670920?term=9781337670920</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/illustrated-course-guide-microsoft-access-2010-lisa-friedrichsen-v9781133169796</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-word-2010-introductory-gary-b-shelly-v113300797x</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/the-speaker-39-s-handbook-spiral-bound-version-jo-sprague-v9781337672139?term=9781337558617</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/illustrated-course-guide-microsoft-powerpoint-david-w-beskeen-v9781133418160</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/mathematical-applications-for-the-management-ronald-j-harshbarger-v9781337671569?term=9781337671569</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/new-perspectives-on-microsoft-windows-8-june-jamrich-parsons-v9781285605944</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-certified-application-specialist-rachel-biheller-bunin-v9781285230436</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/a-midsummer-night-39-s-dream-evans-shakespeare-douglas-bruster-v9781133419341</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/upgrading-to-microsoft-office-2010-mary-terese-cozzola-v9781133170716</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-office-2010-certification-prep-laura-story-v9781285225647</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/invitation-to-computer-science-g-michael-schneider-v9781337671354?term=9781337671354</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/100-externship-success-carol-silvis-v9781285607290</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/course-companion-for-basic-college-mathematics-richard-n-aufmann-v9781133708162</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/american-government-and-politics-today-brief-steffen-w-schmidt-v9781337670173?term=9781337559706</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-office-2007-introductory-pasewark-pasewark-v1133007104</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/election-2010-an-american-government-supplement-john-a-clark-v9781133172475</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/essentials-of-materials-science-amp-engineering-si-donald-r-askeland-v1111780943</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/sexuality-now-embracing-diversity-janell-l-carroll-v9781337672061?term=9781337404990</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/introduction-to-bankruptcy-law-martin-a-frey-v9781285414300</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/business-law-text-amp-exercises-roger-leroy-miller-v9781337670357?term=9781337670357</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/as-you-like-it-evans-shakespeare-editions-heather-dubrow-v9781133419334</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/business-communication-thomas-means-v9781337670333?term=9781337670333</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/comparative-politics-domestic-responses-to-global-charles-hauss-v9781337670456?term=9781337670456</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/buyer-39-s-guide-tips-for-puchasing-a-new-computer-course-technology-v9781133173335</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/investigating-your-career-louisiana-ann-jordan-v1133009468</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/criminal-justice-in-action-larry-k-gaines-v9781337670524?term=9781337670524</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/viewpoints-w-royce-adams-v1111785236</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/new-perspectives-on-photoshop-cs5-introductory-jane-hosie-bounar-v9781133387282</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/introduction-to-comparative-politics-political-mark-kesselman-v9781337671248?term=9781337560443</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-office-2007-post-advanced-concepts-and-gary-b-shelly-v1111797110</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/the-business-of-technology-digital-multimedia-susan-lake-v1111801819</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-office-word-2007-illustrated-complete-jennifer-duffy-v1111800901</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/prealgebra-and-introductory-algebra-an-applied-richard-n-aufmann-v1111793042</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
   </si>
 </sst>
 </file>
@@ -123,13 +402,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD56"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -432,18 +712,850 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/testdata/NoDataIsbns.xlsx
+++ b/src/testdata/NoDataIsbns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>url</t>
   </si>
@@ -35,49 +35,10 @@
     <t>1 Year</t>
   </si>
   <si>
-    <t>180 Day</t>
+    <t>http://www.vitalsource.com/products/finite-element-analysis-with-solidworks-simulation-robert-h-king-v9781337670913?term=9781337618687</t>
   </si>
   <si>
-    <t>http://www.vitalsource.com/products/business-law-text-amp-exercises-roger-leroy-miller-v9781337670357?term=9781337670357</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/as-you-like-it-evans-shakespeare-editions-heather-dubrow-v9781133419334</t>
-  </si>
-  <si>
-    <t>http://www.vitalsource.com/products/comparative-politics-domestic-responses-to-global-charles-hauss-v9781337670456?term=9781337670456</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/buyer-39-s-guide-tips-for-puchasing-a-new-computer-course-technology-v9781133173335</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/investigating-your-career-louisiana-ann-jordan-v1133009468</t>
-  </si>
-  <si>
-    <t>http://www.vitalsource.com/products/criminal-justice-in-action-larry-k-gaines-v9781337670524?term=9781337670524</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/viewpoints-w-royce-adams-v1111785236</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/new-perspectives-on-photoshop-cs5-introductory-jane-hosie-bounar-v9781133387282</t>
-  </si>
-  <si>
-    <t>http://www.vitalsource.com/products/introduction-to-comparative-politics-political-mark-kesselman-v9781337671248?term=9781337560443</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/microsoft-office-2007-post-advanced-concepts-and-gary-b-shelly-v1111797110</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/the-business-of-technology-digital-multimedia-susan-lake-v1111801819</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/microsoft-office-word-2007-illustrated-complete-jennifer-duffy-v1111800901</t>
-  </si>
-  <si>
-    <t>https://www.vitalsource.com/products/prealgebra-and-introductory-algebra-an-applied-richard-n-aufmann-v1111793042</t>
-  </si>
-  <si>
-    <t>Lifetime</t>
+    <t>http://www.vitalsource.com/products/death-amp-dying-life-amp-living-charles-a-corr-v9781337670579?term=9781337670579</t>
   </si>
 </sst>
 </file>
@@ -159,14 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A4" sqref="A4:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -472,127 +432,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/testdata/NoDataIsbns.xlsx
+++ b/src/testdata/NoDataIsbns.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="47">
   <si>
     <t>url</t>
   </si>
@@ -35,10 +35,136 @@
     <t>1 Year</t>
   </si>
   <si>
-    <t>http://www.vitalsource.com/products/finite-element-analysis-with-solidworks-simulation-robert-h-king-v9781337670913?term=9781337618687</t>
-  </si>
-  <si>
-    <t>http://www.vitalsource.com/products/death-amp-dying-life-amp-living-charles-a-corr-v9781337670579?term=9781337670579</t>
+    <t>https://www.vitalsource.com/products/buyer-39-s-guide-tips-for-puchasing-a-new-computer-course-technology-v9781133173335</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>180 Day</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/math-for-liberal-arts-1e-karl-smith-v9781285632278?term=9781285632278</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/physics-1e-vern-j-ostdiek-donald-j-v9781285632155</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/3p-ebk-microsoft-outlook-2010coursenotes-cengage-learning-v9781133169420</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/microsoft-powerpoint-2010-coursenotes-course-technology-v9781133169413</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/world-1e-craig-a-lockard-v1111788243</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/ed-psych-1e-jack-snowman-rick-mccown-v9781285632735</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/cmptr-2-2e-katherine-t-pinard-robin-m-v9781285963662</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/life-1e-john-h-postlethwait-janet-l-v9781285632087</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/stat-2-2e-robert-r-johnson-patricia-j-v9781285632483</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/econ-micro3-3e-william-a-mceachern-v9781285632681</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/comp-2e-randall-vandermey-verne-v9781285632728?term=9781133307747</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/write-1-1e-dave-kemper-verne-meyer-john-v9781133417200</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/promo2-2e-thomas-o-39-guinn-chris-allen-v9781285632797</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/finite-1e-geoffrey-c-berresford-andrew-v9781285632230?term=9780840065551</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/write-2-1e-dave-kemper-verne-meyer-john-v9781133417217</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/om-4-4e-david-alan-collier-james-r-v9781285701011?term=9781133372424</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/speak-1e-rudolph-f-verderber-kathleen-v9781285632568</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/econ-macro-3-3e-william-a-mceachern-v9781285225371</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/world-volume-1-1e-craig-a-lockard-v1111790396?term=9781111790394</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/govt-3-3e-edward-i-sidlow-beth-v9781285632247</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/cfin4-scott-besley-v9781305439702</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/spanish-translated-haircoloring-and-chemical-milady-v9781285414805?term=9781285414805</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/cdev-1e-spencer-a-rathus-v9781285632117</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/mr-2-2e-tom-j-brown-tracy-a-suter-v9781285820231?term=9781133958413</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/ethics-1e-julie-c-van-camp-v9781285499895</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/wciv-1e-gavin-lewis-v9781285632179?term=9781111341800</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/cultural-anthro-1e-richard-h-robbins-v9781285632452</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/mm-3e-dawn-iacobucci-v9781285632650</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/m-amp-b-2e-dean-croushore-v9781285632704?term=9781285632704</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/bcom6-carol-m-lehman-v9781305439696</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/comm-2-2e-rudolph-f-verderber-kathleen-v9781285632063</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/exploraciones-1e-mary-ann-blitt-margarita-v9781285225319</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/managerial-acct2-2e-roby-b-sawyers-steve-v9781285632605</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/wciv-volume-i-1e-gavin-lewis-v9781285632186?term=9781285632186</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/hlth-1e-jeffrey-s-nevid-spencer-a-v9781285632698</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/police-2e-john-s-dempsey-linda-s-v9781285632612</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/math-apps-1e-ronald-j-harshbarger-v9781285632490</t>
+  </si>
+  <si>
+    <t>http://www.vitalsource.com/products/nutr-1e-michelle-39-shelley-39-mcguire-v9781285632711?term=9781285632711</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/chem-1e-melvin-joesten-john-l-hogg-v9781285632285</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/bstat-2-2e-gerald-keller-v9781285974613</t>
+  </si>
+  <si>
+    <t>https://www.vitalsource.com/products/financial-acct2-2e-norman-h-godwin-c-wayne-v9781285632544</t>
   </si>
 </sst>
 </file>
@@ -120,13 +246,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD55"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -428,19 +557,587 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
